--- a/output/frequencies/women/LAO_women_2017.xlsx
+++ b/output/frequencies/women/LAO_women_2017.xlsx
@@ -14,7 +14,6 @@
     <sheet name="pnc_mother_weighted" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="low_bw_weighted" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="early_bf_weighted" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="iron_supp_weighted" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2825,347 +2824,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>iron_supp</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Weighted_Count</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4231.1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3082.4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1148.7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Central</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1962.7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1374.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>South</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>893.8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Mother Edu: Higher</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="C8" t="n">
-        <v>381.4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Mother Edu: None/ECE</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>781.1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Mother Edu: Primary</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1597.6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Mother Edu: Secondary</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Middle</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>789.4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Poor</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>904.4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Poorest</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1081.4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Rich</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="C15" t="n">
-        <v>730.8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Richest</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Chinese-Tibetan</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>125.9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Hmong-Mien</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="C18" t="n">
-        <v>608.1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Lao-Tai</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2365.3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Mon-Khmer</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1086.7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Other, DK, Missing</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="n">
-        <v>45.1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Elderly HoH: NO</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>18</v>
-      </c>
-      <c r="C22" t="n">
-        <v>3540.5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Elderly HoH: YES</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C23" t="n">
-        <v>690.6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="C24" t="n">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="C25" t="n">
-        <v>3802.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>